--- a/Developer Notes/SDP Heirarchy 07052016.xlsx
+++ b/Developer Notes/SDP Heirarchy 07052016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PWingo\Desktop\GitHub\OME\Developer Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpredovi\Desktop\JOeME\OME_live\OME\Developer Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>SDP stuff as of 7/5/2016:</t>
   </si>
@@ -59,13 +59,39 @@
     <t>Virtual class / Interface for SDP implementations.</t>
   </si>
   <si>
-    <t>Base class that can be optionally used to provide some error checking for mismatches between declared and implemented features.</t>
-  </si>
-  <si>
     <t>SDP for use with Envision.</t>
   </si>
   <si>
     <t>SDP for use with CSV files.</t>
+  </si>
+  <si>
+    <t>The Spatial Data Provider(SDP) is the interface used to query for explicit spatial data by interpreting the modeling language</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Base class that can be optionally used to provide some </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>error checking for mismatches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between declared and implemented features. Not needed in the Envision implementation.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -124,13 +150,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C18"/>
+  <dimension ref="A2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,12 +497,62 @@
     <col min="3" max="3" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -484,7 +563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -495,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -503,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,10 +604,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:L6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Developer Notes/SDP Heirarchy 07052016.xlsx
+++ b/Developer Notes/SDP Heirarchy 07052016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpredovi\Desktop\JOeME\OME_live\OME\Developer Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PWingo\Desktop\GitHub\OME\Developer Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>SDP stuff as of 7/5/2016:</t>
   </si>
@@ -59,39 +59,13 @@
     <t>Virtual class / Interface for SDP implementations.</t>
   </si>
   <si>
+    <t>Base class that can be optionally used to provide some error checking for mismatches between declared and implemented features.</t>
+  </si>
+  <si>
     <t>SDP for use with Envision.</t>
   </si>
   <si>
     <t>SDP for use with CSV files.</t>
-  </si>
-  <si>
-    <t>The Spatial Data Provider(SDP) is the interface used to query for explicit spatial data by interpreting the modeling language</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Base class that can be optionally used to provide some </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>error checking for mismatches</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> between declared and implemented features. Not needed in the Envision implementation.</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -150,16 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L18"/>
+  <dimension ref="A2:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,62 +468,12 @@
     <col min="3" max="3" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -563,7 +484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -574,7 +495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -582,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -604,13 +525,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:L6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
